--- a/docs/Update/KukushkinaD/дорожная  карта.xlsx
+++ b/docs/Update/KukushkinaD/дорожная  карта.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -14,12 +14,12 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>Задачи</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Бабушкина</t>
   </si>
   <si>
-    <t>разработка тестовой базы</t>
-  </si>
-  <si>
     <t>изучение и реализация парсинга исходных данных</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>формальное описание файла формата obj</t>
   </si>
   <si>
-    <t>разработка архитектуры(hilevel design)</t>
-  </si>
-  <si>
     <t>Шаталина</t>
   </si>
   <si>
@@ -99,15 +93,9 @@
     <t>изучение и создание мат модели</t>
   </si>
   <si>
-    <t>разработка  и реализация основного алгоритма</t>
-  </si>
-  <si>
     <t>Кудимов, Шаталина</t>
   </si>
   <si>
-    <t>разработка алгоритма  получения выходных данных (файл формата obj и изображение png) из данных полученных основным алгоритмом</t>
-  </si>
-  <si>
     <t>тестирование ПО</t>
   </si>
   <si>
@@ -135,14 +123,44 @@
     <t>№</t>
   </si>
   <si>
-    <t>version 1.0</t>
+    <t>разработка основного алгоритма системы</t>
+  </si>
+  <si>
+    <t>реализация основного алгоритма системы</t>
+  </si>
+  <si>
+    <t>разработка архитектуры(low-level design)</t>
+  </si>
+  <si>
+    <t>разработка архитектуры(hi-level design)</t>
+  </si>
+  <si>
+    <t>доработка ПО по результатам 1-ого релиза</t>
+  </si>
+  <si>
+    <t>разработка тестовой базы (тесты производительности примеры 4к)</t>
+  </si>
+  <si>
+    <t>разработка тестовой базы (сложные примеры с бликами и сложными ландшафтами размерности не более 1к)</t>
+  </si>
+  <si>
+    <t>разработка тестовой базы (простые примеры размерности не более 1к)</t>
+  </si>
+  <si>
+    <t>разработка тестового приложения для сравнения полученных результатов с эталонными данными</t>
+  </si>
+  <si>
+    <t>внедрение баг трекинга в систему разработки</t>
+  </si>
+  <si>
+    <t>version 1.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -195,40 +213,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.47618079800052282"/>
-          <c:y val="7.5772277416156456E-2"/>
-          <c:w val="0.48071900971450882"/>
-          <c:h val="0.85591503529402879"/>
+          <c:x val="0.47734605991735851"/>
+          <c:y val="4.7819895767669582E-2"/>
+          <c:w val="0.49568160138194162"/>
+          <c:h val="0.93118273363820858"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Лист1!$B$1</c:f>
+              <c:f>Лист1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -243,11 +282,12 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Лист1!$A$2:$A$25</c:f>
+              <c:f>Лист1!$B$2:$B$31</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>создание и организация системы управления версиями(git)  и работы  команды(taiga)</c:v>
                 </c:pt>
@@ -267,7 +307,7 @@
                   <c:v>определение требований к тестовому базису</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>разработка тестовой базы</c:v>
+                  <c:v>разработка тестовой базы (простые примеры размерности не более 1к)</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>изучение и реализация парсинга исходных данных</c:v>
@@ -276,7 +316,7 @@
                   <c:v>формальное описание файла формата obj</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>разработка архитектуры(hilevel design)</c:v>
+                  <c:v>разработка архитектуры(hi-level design)</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>разработка программы методики испытаний</c:v>
@@ -285,39 +325,57 @@
                   <c:v>создание руководства оператора</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>разработка основного алгоритма системы</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>разработка тестовой базы (сложные примеры с бликами и сложными ландшафтами размерности не более 1к)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>разработка архитектуры(low-level design)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>изучение и создание мат модели</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>внедрение баг трекинга в систему разработки</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>создание пояснительной записки "Структура входных и исходных данных"</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>изучение и создание мат модели</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>разработка  и реализация основного алгоритма</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>разработка алгоритма  получения выходных данных (файл формата obj и изображение png) из данных полученных основным алгоритмом</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
+                  <c:v>реализация основного алгоритма системы</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>разработка тестовой базы (тесты производительности примеры 4к)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>разработка тестового приложения для сравнения полученных результатов с эталонными данными</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>доработка ПО по результатам 1-ого релиза</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>тестирование ПО</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>создание пояснительной записки "Математическая модель и алгоритм решения"</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
                   <c:v>создание руководства системного программиста</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25">
                   <c:v>создание пояснительной записки "Программная реализация алгоритма решения и методики испытаний"</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="26">
                   <c:v>доработка ПО по результатам тестирования</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="27">
                   <c:v>создание акта приемки в опытную эксплуатацию</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28">
                   <c:v>создание журнала опытной эксплуатации</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="29">
                   <c:v>создание акта о завершении опытной эксплуатации и допуске ПО к приемочным испытаниям</c:v>
                 </c:pt>
               </c:strCache>
@@ -325,10 +383,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Лист1!$B$2:$B$25</c:f>
+              <c:f>Лист1!$C$2:$C$31</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43144</c:v>
                 </c:pt>
@@ -348,7 +406,7 @@
                   <c:v>43151</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43172</c:v>
+                  <c:v>43158</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>43151</c:v>
@@ -366,39 +424,57 @@
                   <c:v>43158</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>43158</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>43165</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>43158</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>43158</c:v>
+                  <c:v>43165</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43186</c:v>
+                  <c:v>43165</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>43165</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43172</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43179</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43179</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43179</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43193</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>43200</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
+                  <c:v>43179</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>43193</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="25">
                   <c:v>43193</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>43193</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="26">
                   <c:v>43207</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="27">
                   <c:v>43207</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28">
                   <c:v>43207</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="29">
                   <c:v>43207</c:v>
                 </c:pt>
               </c:numCache>
@@ -409,15 +485,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[1]Лист1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Длительность</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Длительность</c:v>
           </c:tx>
           <c:spPr>
             <a:gradFill>
@@ -443,17 +511,13 @@
               </a:gsLst>
               <a:lin ang="5400000" scaled="0"/>
             </a:gradFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Лист1!$A$2:$A$25</c:f>
+              <c:f>Лист1!$B$2:$B$31</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>создание и организация системы управления версиями(git)  и работы  команды(taiga)</c:v>
                 </c:pt>
@@ -473,7 +537,7 @@
                   <c:v>определение требований к тестовому базису</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>разработка тестовой базы</c:v>
+                  <c:v>разработка тестовой базы (простые примеры размерности не более 1к)</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>изучение и реализация парсинга исходных данных</c:v>
@@ -482,7 +546,7 @@
                   <c:v>формальное описание файла формата obj</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>разработка архитектуры(hilevel design)</c:v>
+                  <c:v>разработка архитектуры(hi-level design)</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>разработка программы методики испытаний</c:v>
@@ -491,39 +555,57 @@
                   <c:v>создание руководства оператора</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>разработка основного алгоритма системы</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>разработка тестовой базы (сложные примеры с бликами и сложными ландшафтами размерности не более 1к)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>разработка архитектуры(low-level design)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>изучение и создание мат модели</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>внедрение баг трекинга в систему разработки</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>создание пояснительной записки "Структура входных и исходных данных"</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>изучение и создание мат модели</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>разработка  и реализация основного алгоритма</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>разработка алгоритма  получения выходных данных (файл формата obj и изображение png) из данных полученных основным алгоритмом</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
+                  <c:v>реализация основного алгоритма системы</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>разработка тестовой базы (тесты производительности примеры 4к)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>разработка тестового приложения для сравнения полученных результатов с эталонными данными</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>доработка ПО по результатам 1-ого релиза</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>тестирование ПО</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>создание пояснительной записки "Математическая модель и алгоритм решения"</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="24">
                   <c:v>создание руководства системного программиста</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="25">
                   <c:v>создание пояснительной записки "Программная реализация алгоритма решения и методики испытаний"</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="26">
                   <c:v>доработка ПО по результатам тестирования</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="27">
                   <c:v>создание акта приемки в опытную эксплуатацию</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28">
                   <c:v>создание журнала опытной эксплуатации</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="29">
                   <c:v>создание акта о завершении опытной эксплуатации и допуске ПО к приемочным испытаниям</c:v>
                 </c:pt>
               </c:strCache>
@@ -531,10 +613,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Лист1!$D$2:$D$25</c:f>
+              <c:f>Лист1!$E$2:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -551,10 +633,10 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7</c:v>
@@ -563,22 +645,22 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>14</c:v>
@@ -590,10 +672,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>7</c:v>
@@ -605,80 +687,96 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:gapWidth val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="2"/>
         <c:overlap val="100"/>
-        <c:axId val="96416896"/>
-        <c:axId val="96418432"/>
+        <c:axId val="41329408"/>
+        <c:axId val="41331712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96416896"/>
+        <c:axId val="41329408"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" baseline="0"/>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="96418432"/>
+        <c:crossAx val="41331712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96418432"/>
+        <c:axId val="41331712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="43106"/>
+          <c:min val="43144"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="t"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="[$-419]d\ mmm;@" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="96416896"/>
+        <c:crossAx val="41329408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
         <c:minorUnit val="1"/>
       </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -689,19 +787,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -720,7 +818,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Лист1"/>
@@ -1084,6 +1182,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1118,6 +1217,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1293,14 +1393,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="60" customWidth="1"/>
@@ -1310,9 +1410,9 @@
     <col min="6" max="6" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1330,7 +1430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1351,7 +1451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1365,14 +1465,14 @@
         <v>43151</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E25" si="0">D3-C3</f>
+        <f t="shared" ref="E3:E34" si="0">D3-C3</f>
         <v>7</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1393,7 +1493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1414,7 +1514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1435,7 +1535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1446,43 +1546,43 @@
         <v>43151</v>
       </c>
       <c r="D7" s="2">
-        <v>43172</v>
+        <v>43158</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2">
-        <v>43172</v>
+        <v>43158</v>
       </c>
       <c r="D8" s="2">
-        <v>43200</v>
+        <v>43165</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2">
         <v>43151</v>
@@ -1495,15 +1595,15 @@
         <v>7</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
         <v>43158</v>
@@ -1516,36 +1616,36 @@
         <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2">
         <v>43151</v>
       </c>
       <c r="D11" s="2">
-        <v>43165</v>
+        <v>43172</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
         <v>43158</v>
@@ -1561,282 +1661,408 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2">
         <v>43158</v>
       </c>
       <c r="D13" s="2">
-        <v>43165</v>
+        <v>43179</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43158</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43179</v>
+      </c>
+      <c r="E14" s="1">
+        <f>D14-C14</f>
+        <v>21</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="2">
-        <v>43165</v>
-      </c>
-      <c r="D14" s="2">
-        <v>43172</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2">
-        <v>43158</v>
+        <v>43165</v>
       </c>
       <c r="D15" s="2">
-        <v>43186</v>
+        <v>43179</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f>D15-C15</f>
+        <v>14</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2">
-        <v>43158</v>
+        <v>43165</v>
       </c>
       <c r="D16" s="2">
-        <v>43193</v>
+        <v>43179</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f>D16-C16</f>
+        <v>14</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2">
-        <v>43186</v>
+        <v>43165</v>
       </c>
       <c r="D17" s="2">
-        <v>43200</v>
+        <v>43179</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
+        <f>D17-C17</f>
         <v>14</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>29</v>
+      <c r="B18" t="s">
+        <v>43</v>
       </c>
       <c r="C18" s="2">
-        <v>43200</v>
-      </c>
-      <c r="D18" s="2">
-        <v>43207</v>
+        <v>43165</v>
+      </c>
+      <c r="D18" s="5">
+        <v>43172</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
+        <f>D18-C18</f>
         <v>7</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30">
+      <c r="F18" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2">
-        <v>43193</v>
+        <v>43172</v>
       </c>
       <c r="D19" s="2">
-        <v>43200</v>
+        <v>43179</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
+        <f>D19-C19</f>
         <v>7</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="2">
+        <v>35</v>
+      </c>
+      <c r="C20" s="5">
+        <v>43179</v>
+      </c>
+      <c r="D20" s="5">
         <v>43193</v>
       </c>
-      <c r="D20" s="2">
-        <v>43200</v>
-      </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30">
+        <f>D20-C20</f>
+        <v>14</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="2">
+        <v>39</v>
+      </c>
+      <c r="C21" s="5">
+        <v>43179</v>
+      </c>
+      <c r="D21" s="5">
         <v>43193</v>
       </c>
-      <c r="D21" s="2">
-        <v>43200</v>
-      </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <f>D21-C21</f>
+        <v>14</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2">
-        <v>43207</v>
+        <v>43179</v>
       </c>
       <c r="D22" s="2">
-        <v>43214</v>
+        <v>43186</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
+        <f>D22-C22</f>
         <v>7</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="2">
-        <v>43207</v>
-      </c>
-      <c r="D23" s="2">
-        <v>43214</v>
+        <v>38</v>
+      </c>
+      <c r="C23" s="5">
+        <v>43193</v>
+      </c>
+      <c r="D23" s="5">
+        <v>43200</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
+        <f>D23-C23</f>
         <v>7</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="F23" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2">
+        <v>43200</v>
+      </c>
+      <c r="D24" s="2">
         <v>43207</v>
       </c>
-      <c r="D24" s="2">
-        <v>43214</v>
-      </c>
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
+        <f>D24-C24</f>
         <v>7</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30.75" thickBot="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2">
+        <v>43179</v>
+      </c>
+      <c r="D25" s="2">
+        <v>43193</v>
+      </c>
+      <c r="E25" s="1">
+        <f>D25-C25</f>
+        <v>14</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2">
+        <v>43193</v>
+      </c>
+      <c r="D26" s="2">
+        <v>43200</v>
+      </c>
+      <c r="E26" s="1">
+        <f>D26-C26</f>
+        <v>7</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2">
+        <v>43193</v>
+      </c>
+      <c r="D27" s="2">
+        <v>43200</v>
+      </c>
+      <c r="E27" s="1">
+        <f>D27-C27</f>
+        <v>7</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="2">
         <v>43207</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D28" s="2">
         <v>43214</v>
       </c>
-      <c r="E25" s="1">
-        <f t="shared" si="0"/>
+      <c r="E28" s="1">
+        <f>D28-C28</f>
         <v>7</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>38</v>
+      <c r="F28" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="2">
+        <v>43207</v>
+      </c>
+      <c r="D29" s="2">
+        <v>43214</v>
+      </c>
+      <c r="E29" s="1">
+        <f>D29-C29</f>
+        <v>7</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="2">
+        <v>43207</v>
+      </c>
+      <c r="D30" s="2">
+        <v>43214</v>
+      </c>
+      <c r="E30" s="1">
+        <f>D30-C30</f>
+        <v>7</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="2">
+        <v>43207</v>
+      </c>
+      <c r="D31" s="2">
+        <v>43214</v>
+      </c>
+      <c r="E31" s="1">
+        <f>D31-C31</f>
+        <v>7</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1847,12 +2073,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1860,12 +2086,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/docs/Update/KukushkinaD/дорожная  карта.xlsx
+++ b/docs/Update/KukushkinaD/дорожная  карта.xlsx
@@ -11,15 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
   <si>
     <t>Задачи</t>
   </si>
@@ -129,12 +126,6 @@
     <t>реализация основного алгоритма системы</t>
   </si>
   <si>
-    <t>разработка архитектуры(low-level design)</t>
-  </si>
-  <si>
-    <t>разработка архитектуры(hi-level design)</t>
-  </si>
-  <si>
     <t>доработка ПО по результатам 1-ого релиза</t>
   </si>
   <si>
@@ -153,17 +144,113 @@
     <t>внедрение баг трекинга в систему разработки</t>
   </si>
   <si>
-    <t>version 1.1</t>
+    <t>разработка архитектуры(High-Level Design)</t>
+  </si>
+  <si>
+    <t>разработка архитектуры(Low-Level design)</t>
+  </si>
+  <si>
+    <t>преобразование исходного изображения .png</t>
+  </si>
+  <si>
+    <t>моделировать работу алгоритма</t>
+  </si>
+  <si>
+    <t>получение файла .obj</t>
+  </si>
+  <si>
+    <t>создание файла .png</t>
+  </si>
+  <si>
+    <t>19.1</t>
+  </si>
+  <si>
+    <t>19.2</t>
+  </si>
+  <si>
+    <t>19.3</t>
+  </si>
+  <si>
+    <t>19.4</t>
+  </si>
+  <si>
+    <t>сформулировать вероятные риски в процессе подготовки тестовой базы</t>
+  </si>
+  <si>
+    <t>разработка тестовой инфраструктуры</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>разработка кода нарезки фрагментов</t>
+  </si>
+  <si>
+    <t>сформулировать требования к тестовой инфраструктуре</t>
+  </si>
+  <si>
+    <t>сформулировать сценарий использования тестовой инфраструктуры.</t>
+  </si>
+  <si>
+    <t>построить схему архитектуры тестовой инфраструктуры.</t>
+  </si>
+  <si>
+    <t>21.1</t>
+  </si>
+  <si>
+    <t>21.2</t>
+  </si>
+  <si>
+    <t>21.3</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>разработка модульного тестирования</t>
+  </si>
+  <si>
+    <t>реализация основных компонент ПО:</t>
+  </si>
+  <si>
+    <t>version 1.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -196,10 +283,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -217,8 +305,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -285,9 +391,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$B$2:$B$31</c:f>
+              <c:f>Лист1!$B$2:$B$43</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>создание и организация системы управления версиями(git)  и работы  команды(taiga)</c:v>
                 </c:pt>
@@ -307,16 +413,16 @@
                   <c:v>определение требований к тестовому базису</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>разработка тестовой базы (простые примеры размерности не более 1к)</c:v>
+                  <c:v>изучение и реализация парсинга исходных данных</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>изучение и реализация парсинга исходных данных</c:v>
+                  <c:v>разработка архитектуры(High-Level Design)</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>формальное описание файла формата obj</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>разработка архитектуры(hi-level design)</c:v>
+                  <c:v>разработка тестовой базы (простые примеры размерности не более 1к)</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>разработка программы методики испытаний</c:v>
@@ -331,7 +437,7 @@
                   <c:v>разработка тестовой базы (сложные примеры с бликами и сложными ландшафтами размерности не более 1к)</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>разработка архитектуры(low-level design)</c:v>
+                  <c:v>разработка архитектуры(Low-Level design)</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>изучение и создание мат модели</c:v>
@@ -340,42 +446,78 @@
                   <c:v>внедрение баг трекинга в систему разработки</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>разработка модульного тестирования</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>реализация основных компонент ПО:</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>преобразование исходного изображения .png</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>моделировать работу алгоритма</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>получение файла .obj</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>создание файла .png</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>сформулировать вероятные риски в процессе подготовки тестовой базы</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>разработка тестовой инфраструктуры</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>сформулировать требования к тестовой инфраструктуре</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>сформулировать сценарий использования тестовой инфраструктуры.</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>построить схему архитектуры тестовой инфраструктуры.</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>разработка кода нарезки фрагментов</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>создание пояснительной записки "Структура входных и исходных данных"</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="30">
                   <c:v>реализация основного алгоритма системы</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="31">
                   <c:v>разработка тестовой базы (тесты производительности примеры 4к)</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="32">
                   <c:v>разработка тестового приложения для сравнения полученных результатов с эталонными данными</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="33">
+                  <c:v>создание пояснительной записки "Математическая модель и алгоритм решения"</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>доработка ПО по результатам 1-ого релиза</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="35">
+                  <c:v>создание руководства системного программиста</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>создание пояснительной записки "Программная реализация алгоритма решения и методики испытаний"</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>тестирование ПО</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>создание пояснительной записки "Математическая модель и алгоритм решения"</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>создание руководства системного программиста</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>создание пояснительной записки "Программная реализация алгоритма решения и методики испытаний"</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="38">
                   <c:v>доработка ПО по результатам тестирования</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="39">
                   <c:v>создание акта приемки в опытную эксплуатацию</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="40">
                   <c:v>создание журнала опытной эксплуатации</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="41">
                   <c:v>создание акта о завершении опытной эксплуатации и допуске ПО к приемочным испытаниям</c:v>
                 </c:pt>
               </c:strCache>
@@ -383,10 +525,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$31</c:f>
+              <c:f>Лист1!$C$2:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43144</c:v>
                 </c:pt>
@@ -406,7 +548,7 @@
                   <c:v>43151</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43158</c:v>
+                  <c:v>43151</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>43151</c:v>
@@ -415,7 +557,7 @@
                   <c:v>43158</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43151</c:v>
+                  <c:v>43158</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43158</c:v>
@@ -442,39 +584,75 @@
                   <c:v>43172</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>43172</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43172</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43172</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43172</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43172</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43172</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43172</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43172</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43172</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43172</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>43179</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="30">
                   <c:v>43179</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="31">
                   <c:v>43179</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="32">
+                  <c:v>43179</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43179</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>43193</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="35">
+                  <c:v>43193</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43193</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>43200</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>43179</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43193</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43193</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="38">
                   <c:v>43207</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="39">
                   <c:v>43207</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="40">
                   <c:v>43207</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="41">
                   <c:v>43207</c:v>
                 </c:pt>
               </c:numCache>
@@ -515,9 +693,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$B$2:$B$31</c:f>
+              <c:f>Лист1!$B$2:$B$43</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>создание и организация системы управления версиями(git)  и работы  команды(taiga)</c:v>
                 </c:pt>
@@ -537,16 +715,16 @@
                   <c:v>определение требований к тестовому базису</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>разработка тестовой базы (простые примеры размерности не более 1к)</c:v>
+                  <c:v>изучение и реализация парсинга исходных данных</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>изучение и реализация парсинга исходных данных</c:v>
+                  <c:v>разработка архитектуры(High-Level Design)</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>формальное описание файла формата obj</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>разработка архитектуры(hi-level design)</c:v>
+                  <c:v>разработка тестовой базы (простые примеры размерности не более 1к)</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>разработка программы методики испытаний</c:v>
@@ -561,7 +739,7 @@
                   <c:v>разработка тестовой базы (сложные примеры с бликами и сложными ландшафтами размерности не более 1к)</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>разработка архитектуры(low-level design)</c:v>
+                  <c:v>разработка архитектуры(Low-Level design)</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>изучение и создание мат модели</c:v>
@@ -570,42 +748,78 @@
                   <c:v>внедрение баг трекинга в систему разработки</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>разработка модульного тестирования</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>реализация основных компонент ПО:</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>преобразование исходного изображения .png</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>моделировать работу алгоритма</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>получение файла .obj</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>создание файла .png</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>сформулировать вероятные риски в процессе подготовки тестовой базы</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>разработка тестовой инфраструктуры</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>сформулировать требования к тестовой инфраструктуре</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>сформулировать сценарий использования тестовой инфраструктуры.</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>построить схему архитектуры тестовой инфраструктуры.</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>разработка кода нарезки фрагментов</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>создание пояснительной записки "Структура входных и исходных данных"</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="30">
                   <c:v>реализация основного алгоритма системы</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="31">
                   <c:v>разработка тестовой базы (тесты производительности примеры 4к)</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="32">
                   <c:v>разработка тестового приложения для сравнения полученных результатов с эталонными данными</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="33">
+                  <c:v>создание пояснительной записки "Математическая модель и алгоритм решения"</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>доработка ПО по результатам 1-ого релиза</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="35">
+                  <c:v>создание руководства системного программиста</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>создание пояснительной записки "Программная реализация алгоритма решения и методики испытаний"</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>тестирование ПО</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>создание пояснительной записки "Математическая модель и алгоритм решения"</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>создание руководства системного программиста</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>создание пояснительной записки "Программная реализация алгоритма решения и методики испытаний"</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="38">
                   <c:v>доработка ПО по результатам тестирования</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="39">
                   <c:v>создание акта приемки в опытную эксплуатацию</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="40">
                   <c:v>создание журнала опытной эксплуатации</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="41">
                   <c:v>создание акта о завершении опытной эксплуатации и допуске ПО к приемочным испытаниям</c:v>
                 </c:pt>
               </c:strCache>
@@ -613,10 +827,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$2:$E$31</c:f>
+              <c:f>Лист1!$E$2:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -639,16 +853,16 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>21</c:v>
@@ -660,7 +874,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>14</c:v>
@@ -669,7 +883,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>14</c:v>
@@ -678,33 +892,69 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="33">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="35">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -721,11 +971,11 @@
         </c:dLbls>
         <c:gapWidth val="2"/>
         <c:overlap val="100"/>
-        <c:axId val="41329408"/>
-        <c:axId val="41331712"/>
+        <c:axId val="86171008"/>
+        <c:axId val="91034752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41329408"/>
+        <c:axId val="86171008"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -735,7 +985,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41331712"/>
+        <c:crossAx val="91034752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -743,7 +993,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41331712"/>
+        <c:axId val="91034752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="43144"/>
@@ -763,7 +1013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41329408"/>
+        <c:crossAx val="86171008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -788,14 +1038,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>90486</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>90485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -815,296 +1065,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-      <sheetName val="Лист2"/>
-      <sheetName val="Лист3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Начало</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Длительность</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>создание и организация системы управления версиями(git)  и работы  команды(taiga)</v>
-          </cell>
-          <cell r="B2">
-            <v>43144</v>
-          </cell>
-          <cell r="D2">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>анализ поставленной задачи</v>
-          </cell>
-          <cell r="B3">
-            <v>43144</v>
-          </cell>
-          <cell r="D3">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>создание user story</v>
-          </cell>
-          <cell r="B4">
-            <v>43151</v>
-          </cell>
-          <cell r="D4">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>создание прототипа проекта</v>
-          </cell>
-          <cell r="B5">
-            <v>43151</v>
-          </cell>
-          <cell r="D5">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>создание ТЗ</v>
-          </cell>
-          <cell r="B6">
-            <v>43151</v>
-          </cell>
-          <cell r="D6">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>определение требований к тестовому базису</v>
-          </cell>
-          <cell r="B7">
-            <v>43151</v>
-          </cell>
-          <cell r="D7">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>разработка тестовой базы</v>
-          </cell>
-          <cell r="B8">
-            <v>43172</v>
-          </cell>
-          <cell r="D8">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>изучение и реализация парсинга исходных данных</v>
-          </cell>
-          <cell r="B9">
-            <v>43151</v>
-          </cell>
-          <cell r="D9">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>формальное описание файла формата obj</v>
-          </cell>
-          <cell r="B10">
-            <v>43158</v>
-          </cell>
-          <cell r="D10">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>разработка архитектуры(hilevel design)</v>
-          </cell>
-          <cell r="B11">
-            <v>43151</v>
-          </cell>
-          <cell r="D11">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>разработка программы методики испытаний</v>
-          </cell>
-          <cell r="B12">
-            <v>43158</v>
-          </cell>
-          <cell r="D12">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>создание руководства оператора</v>
-          </cell>
-          <cell r="B13">
-            <v>43158</v>
-          </cell>
-          <cell r="D13">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>создание пояснительной записки "Структура входных и исходных данных"</v>
-          </cell>
-          <cell r="B14">
-            <v>43165</v>
-          </cell>
-          <cell r="D14">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>изучение и создание мат модели</v>
-          </cell>
-          <cell r="B15">
-            <v>43158</v>
-          </cell>
-          <cell r="D15">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>разработка  и реализация основного алгоритма</v>
-          </cell>
-          <cell r="B16">
-            <v>43158</v>
-          </cell>
-          <cell r="D16">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>разработка алгоритма  получения выходных данных (файл формата obj и изображение png) из данных полученных основным алгоритмом</v>
-          </cell>
-          <cell r="B17">
-            <v>43186</v>
-          </cell>
-          <cell r="D17">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>тестирование ПО</v>
-          </cell>
-          <cell r="B18">
-            <v>43200</v>
-          </cell>
-          <cell r="D18">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>создание пояснительной записки "Математическая модель и алгоритм решения"</v>
-          </cell>
-          <cell r="B19">
-            <v>43193</v>
-          </cell>
-          <cell r="D19">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>создание руководства системного программиста</v>
-          </cell>
-          <cell r="B20">
-            <v>43193</v>
-          </cell>
-          <cell r="D20">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>создание пояснительной записки "Программная реализация алгоритма решения и методики испытаний"</v>
-          </cell>
-          <cell r="B21">
-            <v>43193</v>
-          </cell>
-          <cell r="D21">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>доработка ПО по результатам тестирования</v>
-          </cell>
-          <cell r="B22">
-            <v>43207</v>
-          </cell>
-          <cell r="D22">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>создание акта приемки в опытную эксплуатацию</v>
-          </cell>
-          <cell r="B23">
-            <v>43207</v>
-          </cell>
-          <cell r="D23">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>создание журнала опытной эксплуатации</v>
-          </cell>
-          <cell r="B24">
-            <v>43207</v>
-          </cell>
-          <cell r="D24">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>создание акта о завершении опытной эксплуатации и допуске ПО к приемочным испытаниям</v>
-          </cell>
-          <cell r="B25">
-            <v>43207</v>
-          </cell>
-          <cell r="D25">
-            <v>7</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1394,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,7 +1425,7 @@
         <v>43151</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E34" si="0">D3-C3</f>
+        <f t="shared" ref="E3:E13" si="0">D3-C3</f>
         <v>7</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -1556,25 +1516,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
+        <v>43151</v>
+      </c>
+      <c r="D8" s="2">
         <v>43158</v>
       </c>
-      <c r="D8" s="2">
-        <v>43165</v>
-      </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
+        <f>D8-C8</f>
         <v>7</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1582,20 +1542,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2">
         <v>43151</v>
       </c>
       <c r="D9" s="2">
-        <v>43158</v>
+        <v>43172</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>D9-C9</f>
+        <v>21</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1619,25 +1579,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2">
-        <v>43151</v>
+        <v>43158</v>
       </c>
       <c r="D11" s="2">
-        <v>43172</v>
+        <v>43165</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f>D11-C11</f>
+        <v>7</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1651,11 +1611,11 @@
         <v>43158</v>
       </c>
       <c r="D12" s="2">
-        <v>43172</v>
+        <v>43179</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>6</v>
@@ -1696,7 +1656,7 @@
         <v>43179</v>
       </c>
       <c r="E14" s="1">
-        <f>D14-C14</f>
+        <f t="shared" ref="E14:E44" si="1">D14-C14</f>
         <v>21</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -1708,7 +1668,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2">
         <v>43165</v>
@@ -1717,7 +1677,7 @@
         <v>43179</v>
       </c>
       <c r="E15" s="1">
-        <f>D15-C15</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -1729,17 +1689,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2">
         <v>43165</v>
       </c>
       <c r="D16" s="2">
-        <v>43179</v>
+        <v>43186</v>
       </c>
       <c r="E16" s="1">
-        <f>D16-C16</f>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>19</v>
@@ -1759,7 +1719,7 @@
         <v>43179</v>
       </c>
       <c r="E17" s="1">
-        <f>D17-C17</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -1771,7 +1731,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2">
         <v>43165</v>
@@ -1780,295 +1740,556 @@
         <v>43172</v>
       </c>
       <c r="E18" s="1">
-        <f>D18-C18</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2">
         <v>43172</v>
       </c>
-      <c r="D19" s="2">
-        <v>43179</v>
+      <c r="D19" s="5">
+        <v>43186</v>
       </c>
       <c r="E19" s="1">
-        <f>D19-C19</f>
-        <v>7</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="5">
-        <v>43179</v>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="2">
+        <v>43172</v>
       </c>
       <c r="D20" s="5">
-        <v>43193</v>
+        <v>43186</v>
       </c>
       <c r="E20" s="1">
-        <f>D20-C20</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="5">
-        <v>43179</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2">
+        <v>43172</v>
       </c>
       <c r="D21" s="5">
-        <v>43193</v>
+        <v>43186</v>
       </c>
       <c r="E21" s="1">
-        <f>D21-C21</f>
+        <f t="shared" ref="E21:E23" si="2">D21-C21</f>
         <v>14</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="C22" s="2">
-        <v>43179</v>
-      </c>
-      <c r="D22" s="2">
+        <v>43172</v>
+      </c>
+      <c r="D22" s="5">
         <v>43186</v>
       </c>
       <c r="E22" s="1">
-        <f>D22-C22</f>
-        <v>7</v>
-      </c>
-      <c r="F22" s="3" t="s">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2">
+        <v>43172</v>
+      </c>
+      <c r="D23" s="5">
+        <v>43186</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="5">
-        <v>43193</v>
-      </c>
-      <c r="D23" s="5">
-        <v>43200</v>
-      </c>
-      <c r="E23" s="1">
-        <f>D23-C23</f>
-        <v>7</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
+      <c r="A24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="C24" s="2">
-        <v>43200</v>
-      </c>
-      <c r="D24" s="2">
-        <v>43207</v>
+        <v>43172</v>
+      </c>
+      <c r="D24" s="5">
+        <v>43186</v>
       </c>
       <c r="E24" s="1">
         <f>D24-C24</f>
-        <v>7</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>26</v>
+      <c r="A25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="C25" s="2">
-        <v>43179</v>
-      </c>
-      <c r="D25" s="2">
-        <v>43193</v>
+        <v>43172</v>
+      </c>
+      <c r="D25" s="10">
+        <v>43214</v>
       </c>
       <c r="E25" s="1">
         <f>D25-C25</f>
-        <v>14</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>27</v>
+      <c r="A26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
       </c>
       <c r="C26" s="2">
-        <v>43193</v>
-      </c>
-      <c r="D26" s="2">
+        <v>43172</v>
+      </c>
+      <c r="D26" s="5">
         <v>43200</v>
       </c>
       <c r="E26" s="1">
         <f>D26-C26</f>
+        <v>28</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="2">
+        <v>43172</v>
+      </c>
+      <c r="D27" s="5">
+        <v>43179</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" ref="E27:E30" si="3">D27-C27</f>
         <v>7</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F27" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="2">
+        <v>43172</v>
+      </c>
+      <c r="D28" s="5">
+        <v>43186</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="2">
+        <v>43172</v>
+      </c>
+      <c r="D29" s="5">
+        <v>43200</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="2">
+        <v>43172</v>
+      </c>
+      <c r="D30" s="5">
+        <v>43186</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="2">
+        <v>43179</v>
+      </c>
+      <c r="D31" s="2">
+        <v>43193</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="5">
+        <v>43179</v>
+      </c>
+      <c r="D32" s="5">
+        <v>43193</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>25</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="5">
+        <v>43179</v>
+      </c>
+      <c r="D33" s="5">
+        <v>43193</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="2">
+        <v>43179</v>
+      </c>
+      <c r="D34" s="2">
+        <v>43186</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>27</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="2">
+        <v>43179</v>
+      </c>
+      <c r="D35" s="2">
+        <v>43193</v>
+      </c>
+      <c r="E35" s="1">
+        <f>D35-C35</f>
+        <v>14</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>28</v>
       </c>
-      <c r="C27" s="2">
+      <c r="B36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="5">
         <v>43193</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D36" s="5">
         <v>43200</v>
       </c>
-      <c r="E27" s="1">
-        <f>D27-C27</f>
+      <c r="E36" s="1">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F36" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>29</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="2">
+        <v>43193</v>
+      </c>
+      <c r="D37" s="2">
+        <v>43200</v>
+      </c>
+      <c r="E37" s="1">
+        <f>D37-C37</f>
+        <v>7</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>30</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="2">
+        <v>43193</v>
+      </c>
+      <c r="D38" s="2">
+        <v>43200</v>
+      </c>
+      <c r="E38" s="1">
+        <f>D38-C38</f>
+        <v>7</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>31</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="2">
+        <v>43200</v>
+      </c>
+      <c r="D39" s="2">
+        <v>43207</v>
+      </c>
+      <c r="E39" s="1">
+        <f>D39-C39</f>
+        <v>7</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>32</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C40" s="2">
         <v>43207</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D40" s="2">
         <v>43214</v>
       </c>
-      <c r="E28" s="1">
-        <f>D28-C28</f>
+      <c r="E40" s="1">
+        <f>D40-C40</f>
         <v>7</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>33</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C41" s="2">
         <v>43207</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D41" s="2">
         <v>43214</v>
       </c>
-      <c r="E29" s="1">
-        <f>D29-C29</f>
+      <c r="E41" s="1">
+        <f>D41-C41</f>
         <v>7</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>34</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C42" s="2">
         <v>43207</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D42" s="2">
         <v>43214</v>
       </c>
-      <c r="E30" s="1">
-        <f>D30-C30</f>
+      <c r="E42" s="1">
+        <f>D42-C42</f>
         <v>7</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="43" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>35</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C43" s="2">
         <v>43207</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D43" s="2">
         <v>43214</v>
       </c>
-      <c r="E31" s="1">
-        <f>D31-C31</f>
+      <c r="E43" s="1">
+        <f>D43-C43</f>
         <v>7</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>44</v>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B21" r:id="rId1" display="https://tree.taiga.io/project/pooh2014-unn_group_one/task/29"/>
+    <hyperlink ref="B22" r:id="rId2" display="https://tree.taiga.io/project/pooh2014-unn_group_one/task/30"/>
+    <hyperlink ref="B24" r:id="rId3" display="https://tree.taiga.io/project/pooh2014-unn_group_one/task/32"/>
+    <hyperlink ref="B23" r:id="rId4" display="https://tree.taiga.io/project/pooh2014-unn_group_one/task/31"/>
+    <hyperlink ref="B27" r:id="rId5" display="https://tree.taiga.io/project/pooh2014-unn_group_one/task/26"/>
+    <hyperlink ref="B28" r:id="rId6" display="https://tree.taiga.io/project/pooh2014-unn_group_one/task/27"/>
+    <hyperlink ref="B29" r:id="rId7" display="https://tree.taiga.io/project/pooh2014-unn_group_one/task/27"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/docs/Update/KukushkinaD/дорожная  карта.xlsx
+++ b/docs/Update/KukushkinaD/дорожная  карта.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
   <si>
     <t>Задачи</t>
   </si>
@@ -90,9 +90,6 @@
     <t>изучение и создание мат модели</t>
   </si>
   <si>
-    <t>Кудимов, Шаталина</t>
-  </si>
-  <si>
     <t>тестирование ПО</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>разработка тестовой базы (простые примеры размерности не более 1к)</t>
   </si>
   <si>
-    <t>разработка тестового приложения для сравнения полученных результатов с эталонными данными</t>
-  </si>
-  <si>
     <t>внедрение баг трекинга в систему разработки</t>
   </si>
   <si>
@@ -216,7 +210,40 @@
     <t>реализация основных компонент ПО:</t>
   </si>
   <si>
-    <t>version 1.2</t>
+    <t>19.5</t>
+  </si>
+  <si>
+    <t>добавить сценарий работы из user-stories и прототипа</t>
+  </si>
+  <si>
+    <t>Внедрение модульного тестирования в проект</t>
+  </si>
+  <si>
+    <t>26.1</t>
+  </si>
+  <si>
+    <t>26.2</t>
+  </si>
+  <si>
+    <t>26.3</t>
+  </si>
+  <si>
+    <t>26.4</t>
+  </si>
+  <si>
+    <t>реализация тестов, покрывающих компонент считывания и парсинг исходных данных</t>
+  </si>
+  <si>
+    <t>реализация тестов, покрывающих компонент основного алгоритма</t>
+  </si>
+  <si>
+    <t>реализация тестов, покрывающих компонент получения файла формата .obj</t>
+  </si>
+  <si>
+    <t>реализация тестов, покрывающих компонент получения файла формата .png</t>
+  </si>
+  <si>
+    <t>version 1.5</t>
   </si>
 </sst>
 </file>
@@ -274,10 +301,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -287,41 +320,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -358,10 +392,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.47734605991735851"/>
-          <c:y val="4.7819895767669582E-2"/>
-          <c:w val="0.49568160138194162"/>
-          <c:h val="0.93118273363820858"/>
+          <c:x val="0.47734605991735862"/>
+          <c:y val="4.7819895767669561E-2"/>
+          <c:w val="0.49568160138194189"/>
+          <c:h val="0.93118273363820869"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -391,9 +425,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$B$2:$B$43</c:f>
+              <c:f>Лист1!$B$2:$B$48</c:f>
               <c:strCache>
-                <c:ptCount val="42"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>создание и организация системы управления версиями(git)  и работы  команды(taiga)</c:v>
                 </c:pt>
@@ -464,60 +498,75 @@
                   <c:v>создание файла .png</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>добавить сценарий работы из user-stories и прототипа</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>сформулировать вероятные риски в процессе подготовки тестовой базы</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>разработка тестовой инфраструктуры</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>сформулировать требования к тестовой инфраструктуре</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>сформулировать сценарий использования тестовой инфраструктуры.</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>построить схему архитектуры тестовой инфраструктуры.</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>разработка кода нарезки фрагментов</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>создание пояснительной записки "Структура входных и исходных данных"</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>реализация основного алгоритма системы</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>разработка тестовой базы (тесты производительности примеры 4к)</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>разработка тестового приложения для сравнения полученных результатов с эталонными данными</c:v>
-                </c:pt>
                 <c:pt idx="33">
+                  <c:v>Внедрение модульного тестирования в проект</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>реализация тестов, покрывающих компонент считывания и парсинг исходных данных</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>реализация тестов, покрывающих компонент основного алгоритма</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>реализация тестов, покрывающих компонент получения файла формата .obj</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>реализация тестов, покрывающих компонент получения файла формата .png</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>создание пояснительной записки "Математическая модель и алгоритм решения"</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="39">
                   <c:v>доработка ПО по результатам 1-ого релиза</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="40">
                   <c:v>создание руководства системного программиста</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="41">
                   <c:v>создание пояснительной записки "Программная реализация алгоритма решения и методики испытаний"</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="42">
                   <c:v>тестирование ПО</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="43">
                   <c:v>доработка ПО по результатам тестирования</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="44">
                   <c:v>создание акта приемки в опытную эксплуатацию</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="45">
                   <c:v>создание журнала опытной эксплуатации</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="46">
                   <c:v>создание акта о завершении опытной эксплуатации и допуске ПО к приемочным испытаниям</c:v>
                 </c:pt>
               </c:strCache>
@@ -525,10 +574,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$43</c:f>
+              <c:f>Лист1!$C$2:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>43144</c:v>
                 </c:pt>
@@ -617,7 +666,7 @@
                   <c:v>43172</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43179</c:v>
+                  <c:v>43172</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>43179</c:v>
@@ -632,27 +681,42 @@
                   <c:v>43179</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>43179</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43200</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43186</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43186</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>43193</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="39">
                   <c:v>43193</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="40">
                   <c:v>43193</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="41">
+                  <c:v>43193</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>43200</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="43">
                   <c:v>43207</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="44">
                   <c:v>43207</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="45">
                   <c:v>43207</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="46">
                   <c:v>43207</c:v>
                 </c:pt>
               </c:numCache>
@@ -693,9 +757,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$B$2:$B$43</c:f>
+              <c:f>Лист1!$B$2:$B$48</c:f>
               <c:strCache>
-                <c:ptCount val="42"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>создание и организация системы управления версиями(git)  и работы  команды(taiga)</c:v>
                 </c:pt>
@@ -766,60 +830,75 @@
                   <c:v>создание файла .png</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>добавить сценарий работы из user-stories и прототипа</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>сформулировать вероятные риски в процессе подготовки тестовой базы</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>разработка тестовой инфраструктуры</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>сформулировать требования к тестовой инфраструктуре</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>сформулировать сценарий использования тестовой инфраструктуры.</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>построить схему архитектуры тестовой инфраструктуры.</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>разработка кода нарезки фрагментов</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>создание пояснительной записки "Структура входных и исходных данных"</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>реализация основного алгоритма системы</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>разработка тестовой базы (тесты производительности примеры 4к)</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>разработка тестового приложения для сравнения полученных результатов с эталонными данными</c:v>
-                </c:pt>
                 <c:pt idx="33">
+                  <c:v>Внедрение модульного тестирования в проект</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>реализация тестов, покрывающих компонент считывания и парсинг исходных данных</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>реализация тестов, покрывающих компонент основного алгоритма</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>реализация тестов, покрывающих компонент получения файла формата .obj</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>реализация тестов, покрывающих компонент получения файла формата .png</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>создание пояснительной записки "Математическая модель и алгоритм решения"</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="39">
                   <c:v>доработка ПО по результатам 1-ого релиза</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="40">
                   <c:v>создание руководства системного программиста</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="41">
                   <c:v>создание пояснительной записки "Программная реализация алгоритма решения и методики испытаний"</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="42">
                   <c:v>тестирование ПО</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="43">
                   <c:v>доработка ПО по результатам тестирования</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="44">
                   <c:v>создание акта приемки в опытную эксплуатацию</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="45">
                   <c:v>создание журнала опытной эксплуатации</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="46">
                   <c:v>создание акта о завершении опытной эксплуатации и допуске ПО к приемочным испытаниям</c:v>
                 </c:pt>
               </c:strCache>
@@ -827,10 +906,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$2:$E$43</c:f>
+              <c:f>Лист1!$E$2:$E$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -868,16 +947,16 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>7</c:v>
@@ -901,49 +980,49 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="35">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>7</c:v>
@@ -955,6 +1034,21 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -971,11 +1065,11 @@
         </c:dLbls>
         <c:gapWidth val="2"/>
         <c:overlap val="100"/>
-        <c:axId val="86171008"/>
-        <c:axId val="91034752"/>
+        <c:axId val="107473536"/>
+        <c:axId val="107544960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86171008"/>
+        <c:axId val="107473536"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -985,7 +1079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91034752"/>
+        <c:crossAx val="107544960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -993,7 +1087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91034752"/>
+        <c:axId val="107544960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="43144"/>
@@ -1013,7 +1107,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86171008"/>
+        <c:crossAx val="107473536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -1026,7 +1120,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1038,13 +1132,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>90485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1354,16 +1448,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="60" customWidth="1"/>
+    <col min="2" max="2" width="60.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
@@ -1371,910 +1465,1015 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>43144</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>43151</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <f>D2-C2</f>
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>43144</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>43151</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <f t="shared" ref="E3:E13" si="0">D3-C3</f>
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>43151</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>43165</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>43151</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>43165</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>43151</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>43165</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>43151</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>43158</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>43151</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>43158</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <f>D8-C8</f>
         <v>7</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3">
         <v>43151</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>43172</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <f>D9-C9</f>
         <v>21</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>43158</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>43165</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="3">
         <v>43158</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>43165</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <f>D11-C11</f>
         <v>7</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>43158</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>43179</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>43158</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>43179</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3">
         <v>43158</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
+        <v>43193</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" ref="E14:E41" si="1">D14-C14</f>
+        <v>35</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3">
+        <v>43165</v>
+      </c>
+      <c r="D15" s="3">
         <v>43179</v>
       </c>
-      <c r="E14" s="1">
-        <f t="shared" ref="E14:E44" si="1">D14-C14</f>
-        <v>21</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="2">
-        <v>43165</v>
-      </c>
-      <c r="D15" s="2">
-        <v>43179</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3">
         <v>43165</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
+        <v>43193</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3">
+        <v>43165</v>
+      </c>
+      <c r="D17" s="3">
         <v>43186</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E17" s="2">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3">
         <v>43165</v>
       </c>
-      <c r="D17" s="2">
-        <v>43179</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D18" s="4">
+        <v>43172</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="3">
+        <v>43172</v>
+      </c>
+      <c r="D19" s="4">
+        <v>43186</v>
+      </c>
+      <c r="E19" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F19" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="3">
+        <v>43172</v>
+      </c>
+      <c r="D20" s="4">
+        <v>43186</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="3">
+        <v>43172</v>
+      </c>
+      <c r="D21" s="4">
+        <v>43186</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" ref="E21:E23" si="2">D21-C21</f>
+        <v>14</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="2">
-        <v>43165</v>
-      </c>
-      <c r="D18" s="5">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="3">
         <v>43172</v>
       </c>
-      <c r="E18" s="1">
+      <c r="D22" s="4">
+        <v>43186</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="3">
+        <v>43172</v>
+      </c>
+      <c r="D23" s="4">
+        <v>43186</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="3">
+        <v>43172</v>
+      </c>
+      <c r="D24" s="4">
+        <v>43186</v>
+      </c>
+      <c r="E24" s="2">
+        <f>D24-C24</f>
+        <v>14</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="3">
+        <v>43172</v>
+      </c>
+      <c r="D25" s="4">
+        <v>43186</v>
+      </c>
+      <c r="E25" s="2">
+        <f>D25-C25</f>
+        <v>14</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="3">
+        <v>43172</v>
+      </c>
+      <c r="D26" s="10">
+        <v>43214</v>
+      </c>
+      <c r="E26" s="2">
+        <f>D26-C26</f>
+        <v>42</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="3">
+        <v>43172</v>
+      </c>
+      <c r="D27" s="4">
+        <v>43200</v>
+      </c>
+      <c r="E27" s="2">
+        <f>D27-C27</f>
+        <v>28</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="3">
+        <v>43172</v>
+      </c>
+      <c r="D28" s="4">
+        <v>43179</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" ref="E28:E31" si="3">D28-C28</f>
+        <v>7</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="3">
+        <v>43172</v>
+      </c>
+      <c r="D29" s="4">
+        <v>43186</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="3">
+        <v>43172</v>
+      </c>
+      <c r="D30" s="4">
+        <v>43200</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="3">
+        <v>43172</v>
+      </c>
+      <c r="D31" s="4">
+        <v>43186</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>23</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="3">
+        <v>43179</v>
+      </c>
+      <c r="D32" s="3">
+        <v>43186</v>
+      </c>
+      <c r="E32" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="2">
-        <v>43172</v>
-      </c>
-      <c r="D19" s="5">
-        <v>43186</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="F32" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>24</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="4">
+        <v>43179</v>
+      </c>
+      <c r="D33" s="4">
+        <v>43193</v>
+      </c>
+      <c r="E33" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="F33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="2">
-        <v>43172</v>
-      </c>
-      <c r="D20" s="5">
-        <v>43186</v>
-      </c>
-      <c r="E20" s="1">
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>25</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="4">
+        <v>43179</v>
+      </c>
+      <c r="D34" s="4">
+        <v>43193</v>
+      </c>
+      <c r="E34" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="2">
-        <v>43172</v>
-      </c>
-      <c r="D21" s="5">
-        <v>43186</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" ref="E21:E23" si="2">D21-C21</f>
-        <v>14</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="2">
-        <v>43172</v>
-      </c>
-      <c r="D22" s="5">
-        <v>43186</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="2">
-        <v>43172</v>
-      </c>
-      <c r="D23" s="5">
-        <v>43186</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="2">
-        <v>43172</v>
-      </c>
-      <c r="D24" s="5">
-        <v>43186</v>
-      </c>
-      <c r="E24" s="1">
-        <f>D24-C24</f>
-        <v>14</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="2">
-        <v>43172</v>
-      </c>
-      <c r="D25" s="10">
+      <c r="F34" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>26</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="3">
+        <v>43179</v>
+      </c>
+      <c r="D35" s="3">
         <v>43214</v>
       </c>
-      <c r="E25" s="1">
-        <f>D25-C25</f>
-        <v>42</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="2">
-        <v>43172</v>
-      </c>
-      <c r="D26" s="5">
-        <v>43200</v>
-      </c>
-      <c r="E26" s="1">
-        <f>D26-C26</f>
-        <v>28</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="2">
-        <v>43172</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="E35" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="14">
         <v>43179</v>
       </c>
-      <c r="E27" s="1">
-        <f t="shared" ref="E27:E30" si="3">D27-C27</f>
-        <v>7</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="2">
-        <v>43172</v>
-      </c>
-      <c r="D28" s="5">
-        <v>43186</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="2">
-        <v>43172</v>
-      </c>
-      <c r="D29" s="5">
-        <v>43200</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="2">
-        <v>43172</v>
-      </c>
-      <c r="D30" s="5">
-        <v>43186</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>23</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="2">
-        <v>43179</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="D36" s="14">
         <v>43193</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E36" s="13">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>24</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="5">
-        <v>43179</v>
-      </c>
-      <c r="D32" s="5">
-        <v>43193</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="F36" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="14">
+        <v>43200</v>
+      </c>
+      <c r="D37" s="14">
+        <v>43214</v>
+      </c>
+      <c r="E37" s="13">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>25</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="5">
-        <v>43179</v>
-      </c>
-      <c r="D33" s="5">
-        <v>43193</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="F37" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="14">
+        <v>43186</v>
+      </c>
+      <c r="D38" s="14">
+        <v>43200</v>
+      </c>
+      <c r="E38" s="13">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="F33" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>26</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="2">
-        <v>43179</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="F38" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="14">
         <v>43186</v>
       </c>
-      <c r="E34" s="1">
+      <c r="D39" s="14">
+        <v>43207</v>
+      </c>
+      <c r="E39" s="13">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>27</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="3">
+        <v>43193</v>
+      </c>
+      <c r="D40" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E40" s="2">
+        <f>D40-C40</f>
+        <v>7</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>28</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="4">
+        <v>43193</v>
+      </c>
+      <c r="D41" s="4">
+        <v>43200</v>
+      </c>
+      <c r="E41" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="F41" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>29</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="3">
+        <v>43193</v>
+      </c>
+      <c r="D42" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" ref="E42:E48" si="4">D42-C42</f>
+        <v>7</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>30</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="2">
-        <v>43179</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="C43" s="3">
         <v>43193</v>
       </c>
-      <c r="E35" s="1">
-        <f>D35-C35</f>
-        <v>14</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="D43" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>31</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="3">
+        <v>43200</v>
+      </c>
+      <c r="D44" s="3">
+        <v>43207</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>32</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="3">
+        <v>43207</v>
+      </c>
+      <c r="D45" s="3">
+        <v>43214</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>33</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="3">
+        <v>43207</v>
+      </c>
+      <c r="D46" s="3">
+        <v>43214</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>34</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="3">
+        <v>43207</v>
+      </c>
+      <c r="D47" s="3">
+        <v>43214</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>28</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="5">
-        <v>43193</v>
-      </c>
-      <c r="D36" s="5">
-        <v>43200</v>
-      </c>
-      <c r="E36" s="1">
-        <f t="shared" si="1"/>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>35</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="3">
+        <v>43207</v>
+      </c>
+      <c r="D48" s="3">
+        <v>43214</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>29</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="2">
-        <v>43193</v>
-      </c>
-      <c r="D37" s="2">
-        <v>43200</v>
-      </c>
-      <c r="E37" s="1">
-        <f>D37-C37</f>
-        <v>7</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>30</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="2">
-        <v>43193</v>
-      </c>
-      <c r="D38" s="2">
-        <v>43200</v>
-      </c>
-      <c r="E38" s="1">
-        <f>D38-C38</f>
-        <v>7</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>31</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="2">
-        <v>43200</v>
-      </c>
-      <c r="D39" s="2">
-        <v>43207</v>
-      </c>
-      <c r="E39" s="1">
-        <f>D39-C39</f>
-        <v>7</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>32</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="2">
-        <v>43207</v>
-      </c>
-      <c r="D40" s="2">
-        <v>43214</v>
-      </c>
-      <c r="E40" s="1">
-        <f>D40-C40</f>
-        <v>7</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>33</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="2">
-        <v>43207</v>
-      </c>
-      <c r="D41" s="2">
-        <v>43214</v>
-      </c>
-      <c r="E41" s="1">
-        <f>D41-C41</f>
-        <v>7</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>34</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="2">
-        <v>43207</v>
-      </c>
-      <c r="D42" s="2">
-        <v>43214</v>
-      </c>
-      <c r="E42" s="1">
-        <f>D42-C42</f>
-        <v>7</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>35</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="2">
-        <v>43207</v>
-      </c>
-      <c r="D43" s="2">
-        <v>43214</v>
-      </c>
-      <c r="E43" s="1">
-        <f>D43-C43</f>
-        <v>7</v>
-      </c>
-      <c r="F43" s="4" t="s">
+      <c r="F48" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>66</v>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2283,9 +2482,9 @@
     <hyperlink ref="B22" r:id="rId2" display="https://tree.taiga.io/project/pooh2014-unn_group_one/task/30"/>
     <hyperlink ref="B24" r:id="rId3" display="https://tree.taiga.io/project/pooh2014-unn_group_one/task/32"/>
     <hyperlink ref="B23" r:id="rId4" display="https://tree.taiga.io/project/pooh2014-unn_group_one/task/31"/>
-    <hyperlink ref="B27" r:id="rId5" display="https://tree.taiga.io/project/pooh2014-unn_group_one/task/26"/>
-    <hyperlink ref="B28" r:id="rId6" display="https://tree.taiga.io/project/pooh2014-unn_group_one/task/27"/>
-    <hyperlink ref="B29" r:id="rId7" display="https://tree.taiga.io/project/pooh2014-unn_group_one/task/27"/>
+    <hyperlink ref="B28" r:id="rId5" display="https://tree.taiga.io/project/pooh2014-unn_group_one/task/26"/>
+    <hyperlink ref="B29" r:id="rId6" display="https://tree.taiga.io/project/pooh2014-unn_group_one/task/27"/>
+    <hyperlink ref="B30" r:id="rId7" display="https://tree.taiga.io/project/pooh2014-unn_group_one/task/27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId8"/>

--- a/docs/Update/KukushkinaD/дорожная  карта.xlsx
+++ b/docs/Update/KukushkinaD/дорожная  карта.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
   <si>
     <t>Задачи</t>
   </si>
@@ -99,9 +99,6 @@
     <t>создание руководства системного программиста</t>
   </si>
   <si>
-    <t>создание пояснительной записки "Программная реализация алгоритма решения и методики испытаний"</t>
-  </si>
-  <si>
     <t>доработка ПО по результатам тестирования</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>реализация основного алгоритма системы</t>
   </si>
   <si>
-    <t>доработка ПО по результатам 1-ого релиза</t>
-  </si>
-  <si>
     <t>разработка тестовой базы (тесты производительности примеры 4к)</t>
   </si>
   <si>
@@ -243,7 +237,25 @@
     <t>реализация тестов, покрывающих компонент получения файла формата .png</t>
   </si>
   <si>
-    <t>version 1.5</t>
+    <t>Разработка подпрограммы для тестового приложения</t>
+  </si>
+  <si>
+    <t>Реализация тестового приложения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Описание схемы оценки алгоритма </t>
+  </si>
+  <si>
+    <t>21.4</t>
+  </si>
+  <si>
+    <t>ПЗ по входным и выходным данным тестовой инфраструктуры</t>
+  </si>
+  <si>
+    <t>Создание ПЗ "Программная реализация"</t>
+  </si>
+  <si>
+    <t>version 1.6</t>
   </si>
 </sst>
 </file>
@@ -392,9 +404,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.47734605991735862"/>
-          <c:y val="4.7819895767669561E-2"/>
-          <c:w val="0.49568160138194189"/>
+          <c:x val="0.47734605991735868"/>
+          <c:y val="4.7819895767669547E-2"/>
+          <c:w val="0.49568160138194201"/>
           <c:h val="0.93118273363820869"/>
         </c:manualLayout>
       </c:layout>
@@ -425,9 +437,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$B$2:$B$48</c:f>
+              <c:f>Лист1!$B$2:$B$51</c:f>
               <c:strCache>
-                <c:ptCount val="47"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>создание и организация системы управления версиями(git)  и работы  команды(taiga)</c:v>
                 </c:pt>
@@ -516,57 +528,66 @@
                   <c:v>построить схему архитектуры тестовой инфраструктуры.</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>ПЗ по входным и выходным данным тестовой инфраструктуры</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>разработка кода нарезки фрагментов</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>создание пояснительной записки "Структура входных и исходных данных"</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>реализация основного алгоритма системы</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>разработка тестовой базы (тесты производительности примеры 4к)</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>Внедрение модульного тестирования в проект</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>реализация тестов, покрывающих компонент считывания и парсинг исходных данных</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>реализация тестов, покрывающих компонент основного алгоритма</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>реализация тестов, покрывающих компонент получения файла формата .obj</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>реализация тестов, покрывающих компонент получения файла формата .png</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
+                  <c:v>Разработка подпрограммы для тестового приложения</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Реализация тестового приложения</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Описание схемы оценки алгоритма </c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>создание пояснительной записки "Математическая модель и алгоритм решения"</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>доработка ПО по результатам 1-ого релиза</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="43">
                   <c:v>создание руководства системного программиста</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>создание пояснительной записки "Программная реализация алгоритма решения и методики испытаний"</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>тестирование ПО</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
+                  <c:v>Создание ПЗ "Программная реализация"</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>доработка ПО по результатам тестирования</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="47">
                   <c:v>создание акта приемки в опытную эксплуатацию</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="48">
                   <c:v>создание журнала опытной эксплуатации</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="49">
                   <c:v>создание акта о завершении опытной эксплуатации и допуске ПО к приемочным испытаниям</c:v>
                 </c:pt>
               </c:strCache>
@@ -574,10 +595,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$48</c:f>
+              <c:f>Лист1!$C$2:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>43144</c:v>
                 </c:pt>
@@ -666,10 +687,10 @@
                   <c:v>43172</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>43186</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>43172</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43179</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>43179</c:v>
@@ -684,39 +705,48 @@
                   <c:v>43179</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>43179</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>43200</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43186</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43186</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>43186</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43186</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43186</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43186</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>43193</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="43">
                   <c:v>43193</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>43193</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43193</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>43200</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43207</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>43207</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43207</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43207</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>43207</c:v>
                 </c:pt>
               </c:numCache>
@@ -757,9 +787,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$B$2:$B$48</c:f>
+              <c:f>Лист1!$B$2:$B$51</c:f>
               <c:strCache>
-                <c:ptCount val="47"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>создание и организация системы управления версиями(git)  и работы  команды(taiga)</c:v>
                 </c:pt>
@@ -848,57 +878,66 @@
                   <c:v>построить схему архитектуры тестовой инфраструктуры.</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>ПЗ по входным и выходным данным тестовой инфраструктуры</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>разработка кода нарезки фрагментов</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>создание пояснительной записки "Структура входных и исходных данных"</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>реализация основного алгоритма системы</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>разработка тестовой базы (тесты производительности примеры 4к)</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>Внедрение модульного тестирования в проект</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>реализация тестов, покрывающих компонент считывания и парсинг исходных данных</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>реализация тестов, покрывающих компонент основного алгоритма</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>реализация тестов, покрывающих компонент получения файла формата .obj</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>реализация тестов, покрывающих компонент получения файла формата .png</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
+                  <c:v>Разработка подпрограммы для тестового приложения</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Реализация тестового приложения</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Описание схемы оценки алгоритма </c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>создание пояснительной записки "Математическая модель и алгоритм решения"</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>доработка ПО по результатам 1-ого релиза</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="43">
                   <c:v>создание руководства системного программиста</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>создание пояснительной записки "Программная реализация алгоритма решения и методики испытаний"</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>тестирование ПО</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
+                  <c:v>Создание ПЗ "Программная реализация"</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>доработка ПО по результатам тестирования</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="47">
                   <c:v>создание акта приемки в опытную эксплуатацию</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="48">
                   <c:v>создание журнала опытной эксплуатации</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="49">
                   <c:v>создание акта о завершении опытной эксплуатации и допуске ПО к приемочным испытаниям</c:v>
                 </c:pt>
               </c:strCache>
@@ -906,10 +945,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$2:$E$48</c:f>
+              <c:f>Лист1!$E$2:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -947,13 +986,13 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>21</c:v>
@@ -998,22 +1037,22 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>14</c:v>
@@ -1022,19 +1061,19 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>7</c:v>
@@ -1049,6 +1088,15 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -1065,11 +1113,11 @@
         </c:dLbls>
         <c:gapWidth val="2"/>
         <c:overlap val="100"/>
-        <c:axId val="107473536"/>
-        <c:axId val="107544960"/>
+        <c:axId val="92939008"/>
+        <c:axId val="92940544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="107473536"/>
+        <c:axId val="92939008"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1079,7 +1127,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107544960"/>
+        <c:crossAx val="92940544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1087,7 +1135,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107544960"/>
+        <c:axId val="92940544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="43144"/>
@@ -1107,7 +1155,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107473536"/>
+        <c:crossAx val="92939008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -1120,7 +1168,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1131,15 +1179,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>90485</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>71435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1448,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F51" sqref="A1:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,7 +1514,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1636,7 +1684,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="3">
         <v>43151</v>
@@ -1678,7 +1726,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3">
         <v>43158</v>
@@ -1741,17 +1789,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3">
         <v>43158</v>
       </c>
       <c r="D14" s="3">
-        <v>43193</v>
+        <v>43207</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" ref="E14:E41" si="1">D14-C14</f>
-        <v>35</v>
+        <f t="shared" ref="E14:E40" si="1">D14-C14</f>
+        <v>49</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>11</v>
@@ -1762,7 +1810,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3">
         <v>43165</v>
@@ -1783,17 +1831,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3">
         <v>43165</v>
       </c>
       <c r="D16" s="3">
-        <v>43193</v>
+        <v>43214</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>19</v>
@@ -1825,7 +1873,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="3">
         <v>43165</v>
@@ -1846,7 +1894,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" s="3">
         <v>43172</v>
@@ -1867,7 +1915,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" s="3">
         <v>43172</v>
@@ -1885,10 +1933,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="3">
         <v>43172</v>
@@ -1906,10 +1954,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="3">
         <v>43172</v>
@@ -1927,10 +1975,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="3">
         <v>43172</v>
@@ -1948,10 +1996,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3">
         <v>43172</v>
@@ -1969,10 +2017,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" s="3">
         <v>43172</v>
@@ -1990,10 +2038,10 @@
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="3">
         <v>43172</v>
@@ -2011,10 +2059,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27" s="3">
         <v>43172</v>
@@ -2032,10 +2080,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" s="3">
         <v>43172</v>
@@ -2044,7 +2092,7 @@
         <v>43179</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" ref="E28:E31" si="3">D28-C28</f>
+        <f t="shared" ref="E28:E32" si="3">D28-C28</f>
         <v>7</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -2053,10 +2101,10 @@
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" s="3">
         <v>43172</v>
@@ -2074,10 +2122,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C30" s="3">
         <v>43172</v>
@@ -2094,74 +2142,74 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>54</v>
+      <c r="A31" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="C31" s="3">
-        <v>43172</v>
+        <v>43186</v>
       </c>
       <c r="D31" s="4">
-        <v>43186</v>
+        <v>43193</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="3">
+        <v>43172</v>
+      </c>
+      <c r="D32" s="4">
+        <v>43186</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>23</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C33" s="3">
         <v>43179</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D33" s="3">
         <v>43186</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E33" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>24</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="4">
-        <v>43179</v>
-      </c>
-      <c r="D33" s="4">
-        <v>43193</v>
-      </c>
-      <c r="E33" s="2">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>25</v>
-      </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C34" s="4">
         <v>43179</v>
@@ -2174,63 +2222,63 @@
         <v>14</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="3">
+        <v>34</v>
+      </c>
+      <c r="C35" s="4">
         <v>43179</v>
       </c>
-      <c r="D35" s="3">
-        <v>43214</v>
+      <c r="D35" s="4">
+        <v>43193</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>26</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="3">
+        <v>43179</v>
+      </c>
+      <c r="D36" s="3">
+        <v>43214</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="14">
-        <v>43179</v>
-      </c>
-      <c r="D36" s="14">
-        <v>43193</v>
-      </c>
-      <c r="E36" s="13">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C37" s="14">
-        <v>43200</v>
+        <v>43179</v>
       </c>
       <c r="D37" s="14">
-        <v>43214</v>
+        <v>43193</v>
       </c>
       <c r="E37" s="13">
         <f t="shared" si="1"/>
@@ -2242,16 +2290,16 @@
     </row>
     <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C38" s="14">
-        <v>43186</v>
+        <v>43200</v>
       </c>
       <c r="D38" s="14">
-        <v>43200</v>
+        <v>43214</v>
       </c>
       <c r="E38" s="13">
         <f t="shared" si="1"/>
@@ -2263,178 +2311,178 @@
     </row>
     <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C39" s="14">
         <v>43186</v>
       </c>
       <c r="D39" s="14">
-        <v>43207</v>
+        <v>43200</v>
       </c>
       <c r="E39" s="13">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>27</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="3">
-        <v>43193</v>
-      </c>
-      <c r="D40" s="3">
-        <v>43200</v>
-      </c>
-      <c r="E40" s="2">
-        <f>D40-C40</f>
-        <v>7</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="A40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="14">
+        <v>43186</v>
+      </c>
+      <c r="D40" s="14">
+        <v>43207</v>
+      </c>
+      <c r="E40" s="13">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="F40" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="C41" s="4">
+        <v>43186</v>
+      </c>
+      <c r="D41" s="4">
         <v>43193</v>
       </c>
-      <c r="D41" s="4">
-        <v>43200</v>
-      </c>
       <c r="E41" s="2">
-        <f t="shared" si="1"/>
+        <f>D41-C41</f>
         <v>7</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
+        <v>28</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="4">
+        <v>43186</v>
+      </c>
+      <c r="D42" s="4">
+        <v>43200</v>
+      </c>
+      <c r="E42" s="2">
+        <f>D42-C42</f>
+        <v>14</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>29</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="3">
+      <c r="B43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="4">
+        <v>43186</v>
+      </c>
+      <c r="D43" s="4">
+        <v>43200</v>
+      </c>
+      <c r="E43" s="2">
+        <f>D43-C43</f>
+        <v>14</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>30</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="3">
         <v>43193</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D44" s="3">
         <v>43200</v>
       </c>
-      <c r="E42" s="2">
-        <f t="shared" ref="E42:E48" si="4">D42-C42</f>
+      <c r="E44" s="2">
+        <f>D44-C44</f>
         <v>7</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>30</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="3">
-        <v>43193</v>
-      </c>
-      <c r="D43" s="3">
-        <v>43200</v>
-      </c>
-      <c r="E43" s="2">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>31</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="3">
-        <v>43200</v>
-      </c>
-      <c r="D44" s="3">
-        <v>43207</v>
-      </c>
-      <c r="E44" s="2">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C45" s="3">
-        <v>43207</v>
+        <v>43193</v>
       </c>
       <c r="D45" s="3">
-        <v>43214</v>
+        <v>43200</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E45" si="4">D45-C45</f>
         <v>7</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C46" s="3">
+        <v>43200</v>
+      </c>
+      <c r="D46" s="3">
         <v>43207</v>
       </c>
-      <c r="D46" s="3">
-        <v>43214</v>
-      </c>
       <c r="E46" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E46:E51" si="5">D46-C46</f>
         <v>7</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C47" s="3">
         <v>43207</v>
@@ -2443,19 +2491,19 @@
         <v>43214</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C48" s="3">
         <v>43207</v>
@@ -2464,16 +2512,79 @@
         <v>43214</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>75</v>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>35</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="3">
+        <v>43207</v>
+      </c>
+      <c r="D49" s="3">
+        <v>43214</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>36</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="3">
+        <v>43207</v>
+      </c>
+      <c r="D50" s="3">
+        <v>43214</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>37</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="3">
+        <v>43207</v>
+      </c>
+      <c r="D51" s="3">
+        <v>43214</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2486,8 +2597,8 @@
     <hyperlink ref="B29" r:id="rId6" display="https://tree.taiga.io/project/pooh2014-unn_group_one/task/27"/>
     <hyperlink ref="B30" r:id="rId7" display="https://tree.taiga.io/project/pooh2014-unn_group_one/task/27"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId8"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId8"/>
   <drawing r:id="rId9"/>
 </worksheet>
 </file>

--- a/docs/Update/KukushkinaD/дорожная  карта.xlsx
+++ b/docs/Update/KukushkinaD/дорожная  карта.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="7530"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="96">
   <si>
     <t>Задачи</t>
   </si>
@@ -255,14 +255,62 @@
     <t>Создание ПЗ "Программная реализация"</t>
   </si>
   <si>
-    <t>version 1.6</t>
+    <t>Отчет по НИР</t>
+  </si>
+  <si>
+    <t>Кукушкина</t>
+  </si>
+  <si>
+    <t>Исследование алгоритмов</t>
+  </si>
+  <si>
+    <t>Шаталина, Кудимов, Куликов</t>
+  </si>
+  <si>
+    <t>33.1</t>
+  </si>
+  <si>
+    <t>Реализация различных ядер</t>
+  </si>
+  <si>
+    <t>33.2</t>
+  </si>
+  <si>
+    <t>Реализация быстрого подсчета градиента в одной точке</t>
+  </si>
+  <si>
+    <t>33.3</t>
+  </si>
+  <si>
+    <t>Предоставить плохие точки для разработки алгоритма</t>
+  </si>
+  <si>
+    <t>33.4</t>
+  </si>
+  <si>
+    <t>добавить логику фильтрации (отсева) плохих точек</t>
+  </si>
+  <si>
+    <t>подготовить примеры картинок для обучения и тестирования алгоритма</t>
+  </si>
+  <si>
+    <t>34.5</t>
+  </si>
+  <si>
+    <t>26.5</t>
+  </si>
+  <si>
+    <t>реализация тестов, покрывающих функции отсева и подсчета градиента</t>
+  </si>
+  <si>
+    <t>version 1.9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +343,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -304,7 +360,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -327,12 +383,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -368,6 +435,23 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -385,35 +469,23 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.47734605991735868"/>
-          <c:y val="4.7819895767669547E-2"/>
-          <c:w val="0.49568160138194201"/>
+          <c:x val="0.4773460599173589"/>
+          <c:y val="4.7819895767669512E-2"/>
+          <c:w val="0.49568160138194239"/>
           <c:h val="0.93118273363820869"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -434,12 +506,11 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$B$2:$B$51</c:f>
+              <c:f>Лист1!$B$2:$B$59</c:f>
               <c:strCache>
-                <c:ptCount val="50"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>создание и организация системы управления версиями(git)  и работы  команды(taiga)</c:v>
                 </c:pt>
@@ -558,36 +629,60 @@
                   <c:v>реализация тестов, покрывающих компонент получения файла формата .png</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>реализация тестов, покрывающих функции отсева и подсчета градиента</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>Разработка подпрограммы для тестового приложения</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>Реализация тестового приложения</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>Описание схемы оценки алгоритма </c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>создание пояснительной записки "Математическая модель и алгоритм решения"</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>создание руководства системного программиста</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
+                  <c:v>Отчет по НИР</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Исследование алгоритмов</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Реализация различных ядер</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Реализация быстрого подсчета градиента в одной точке</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Предоставить плохие точки для разработки алгоритма</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>добавить логику фильтрации (отсева) плохих точек</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>подготовить примеры картинок для обучения и тестирования алгоритма</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>тестирование ПО</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="53">
                   <c:v>Создание ПЗ "Программная реализация"</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="54">
                   <c:v>доработка ПО по результатам тестирования</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="55">
                   <c:v>создание акта приемки в опытную эксплуатацию</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="56">
                   <c:v>создание журнала опытной эксплуатации</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="57">
                   <c:v>создание акта о завершении опытной эксплуатации и допуске ПО к приемочным испытаниям</c:v>
                 </c:pt>
               </c:strCache>
@@ -595,10 +690,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$51</c:f>
+              <c:f>Лист1!$C$2:$C$59</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>43144</c:v>
                 </c:pt>
@@ -717,7 +812,7 @@
                   <c:v>43186</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43186</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>43186</c:v>
@@ -726,28 +821,52 @@
                   <c:v>43186</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43193</c:v>
+                  <c:v>43186</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>43193</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43193</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43193</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43193</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43193</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43193</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>43200</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="51">
                   <c:v>43207</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>43207</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43207</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>43207</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>43207</c:v>
+                <c:pt idx="52">
+                  <c:v>43214</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43214</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43214</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43228</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43228</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -784,12 +903,11 @@
               <a:lin ang="5400000" scaled="0"/>
             </a:gradFill>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$B$2:$B$51</c:f>
+              <c:f>Лист1!$B$2:$B$59</c:f>
               <c:strCache>
-                <c:ptCount val="50"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>создание и организация системы управления версиями(git)  и работы  команды(taiga)</c:v>
                 </c:pt>
@@ -908,36 +1026,60 @@
                   <c:v>реализация тестов, покрывающих компонент получения файла формата .png</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>реализация тестов, покрывающих функции отсева и подсчета градиента</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>Разработка подпрограммы для тестового приложения</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>Реализация тестового приложения</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>Описание схемы оценки алгоритма </c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>создание пояснительной записки "Математическая модель и алгоритм решения"</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>создание руководства системного программиста</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
+                  <c:v>Отчет по НИР</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Исследование алгоритмов</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Реализация различных ядер</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Реализация быстрого подсчета градиента в одной точке</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Предоставить плохие точки для разработки алгоритма</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>добавить логику фильтрации (отсева) плохих точек</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>подготовить примеры картинок для обучения и тестирования алгоритма</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>тестирование ПО</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="53">
                   <c:v>Создание ПЗ "Программная реализация"</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="54">
                   <c:v>доработка ПО по результатам тестирования</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="55">
                   <c:v>создание акта приемки в опытную эксплуатацию</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="56">
                   <c:v>создание журнала опытной эксплуатации</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="57">
                   <c:v>создание акта о завершении опытной эксплуатации и допуске ПО к приемочным испытаниям</c:v>
                 </c:pt>
               </c:strCache>
@@ -945,10 +1087,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$2:$E$51</c:f>
+              <c:f>Лист1!$E$2:$E$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -1070,13 +1212,13 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>14</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>7</c:v>
@@ -1085,62 +1227,73 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:gapWidth val="2"/>
         <c:overlap val="100"/>
-        <c:axId val="92939008"/>
-        <c:axId val="92940544"/>
+        <c:axId val="166624640"/>
+        <c:axId val="166634624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92939008"/>
+        <c:axId val="166624640"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92940544"/>
+        <c:crossAx val="166634624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92940544"/>
+        <c:axId val="166634624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="43144"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="t"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1152,10 +1305,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="[$-419]d\ mmm;@" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92939008"/>
+        <c:crossAx val="166624640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -1164,11 +1315,10 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1180,14 +1330,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>71435</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>71434</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1284,7 +1434,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1319,7 +1468,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1495,14 +1643,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F51" sqref="A1:F51"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.85546875" customWidth="1"/>
@@ -1512,7 +1660,7 @@
     <col min="6" max="6" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1532,7 +1680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1553,7 +1701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1574,7 +1722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1595,7 +1743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1616,7 +1764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1637,7 +1785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1658,7 +1806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1679,7 +1827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1700,7 +1848,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1721,7 +1869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1742,7 +1890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1763,7 +1911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1784,7 +1932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1798,14 +1946,14 @@
         <v>43207</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" ref="E14:E40" si="1">D14-C14</f>
+        <f t="shared" ref="E14:E41" si="1">D14-C14</f>
         <v>49</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1826,7 +1974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1847,7 +1995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1868,7 +2016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1889,7 +2037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1910,7 +2058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1931,7 +2079,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="6" t="s">
         <v>44</v>
       </c>
@@ -1952,7 +2100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="6" t="s">
         <v>45</v>
       </c>
@@ -1973,7 +2121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="6" t="s">
         <v>46</v>
       </c>
@@ -1994,7 +2142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="6" t="s">
         <v>47</v>
       </c>
@@ -2015,7 +2163,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="6" t="s">
         <v>62</v>
       </c>
@@ -2036,7 +2184,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="30">
       <c r="A26" s="8" t="s">
         <v>50</v>
       </c>
@@ -2057,7 +2205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="8" t="s">
         <v>51</v>
       </c>
@@ -2078,7 +2226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="6" t="s">
         <v>56</v>
       </c>
@@ -2099,7 +2247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="30">
       <c r="A29" s="6" t="s">
         <v>57</v>
       </c>
@@ -2120,7 +2268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="6" t="s">
         <v>58</v>
       </c>
@@ -2141,7 +2289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="6" t="s">
         <v>76</v>
       </c>
@@ -2162,7 +2310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="8" t="s">
         <v>59</v>
       </c>
@@ -2183,7 +2331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="30">
       <c r="A33" s="1">
         <v>23</v>
       </c>
@@ -2204,7 +2352,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>24</v>
       </c>
@@ -2225,7 +2373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="30">
       <c r="A35" s="1">
         <v>25</v>
       </c>
@@ -2246,7 +2394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>26</v>
       </c>
@@ -2267,7 +2415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="30">
       <c r="A37" s="6" t="s">
         <v>65</v>
       </c>
@@ -2288,7 +2436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="30">
       <c r="A38" s="6" t="s">
         <v>66</v>
       </c>
@@ -2309,7 +2457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="30">
       <c r="A39" s="6" t="s">
         <v>67</v>
       </c>
@@ -2330,7 +2478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="30">
       <c r="A40" s="6" t="s">
         <v>68</v>
       </c>
@@ -2351,54 +2499,54 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+    <row r="41" spans="1:6" ht="30">
+      <c r="A41" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="14">
+        <v>43207</v>
+      </c>
+      <c r="D41" s="14">
+        <v>43214</v>
+      </c>
+      <c r="E41" s="13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
         <v>27</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C41" s="4">
-        <v>43186</v>
-      </c>
-      <c r="D41" s="4">
-        <v>43193</v>
-      </c>
-      <c r="E41" s="2">
-        <f>D41-C41</f>
-        <v>7</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>28</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C42" s="4">
         <v>43186</v>
       </c>
       <c r="D42" s="4">
-        <v>43200</v>
+        <v>43193</v>
       </c>
       <c r="E42" s="2">
         <f>D42-C42</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C43" s="4">
         <v>43186</v>
@@ -2414,33 +2562,33 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="3">
-        <v>43193</v>
-      </c>
-      <c r="D44" s="3">
+        <v>75</v>
+      </c>
+      <c r="C44" s="4">
+        <v>43186</v>
+      </c>
+      <c r="D44" s="4">
         <v>43200</v>
       </c>
       <c r="E44" s="2">
         <f>D44-C44</f>
-        <v>7</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30">
       <c r="A45" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C45" s="3">
         <v>43193</v>
@@ -2449,142 +2597,310 @@
         <v>43200</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" ref="E45" si="4">D45-C45</f>
+        <f>D45-C45</f>
         <v>7</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>31</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="3">
+        <v>43193</v>
+      </c>
+      <c r="D46" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" ref="E46:E53" si="4">D46-C46</f>
+        <v>7</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
         <v>32</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="3">
+        <v>43193</v>
+      </c>
+      <c r="D47" s="3">
+        <v>43228</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30">
+      <c r="A48" s="1">
+        <v>33</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="3">
+        <v>43193</v>
+      </c>
+      <c r="D48" s="3">
+        <v>43214</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="17">
+        <v>43193</v>
+      </c>
+      <c r="D49" s="17">
+        <v>43207</v>
+      </c>
+      <c r="E49" s="16">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="17">
+        <v>43193</v>
+      </c>
+      <c r="D50" s="17">
+        <v>43200</v>
+      </c>
+      <c r="E50" s="16">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="17">
+        <v>43193</v>
+      </c>
+      <c r="D51" s="17">
+        <v>43200</v>
+      </c>
+      <c r="E51" s="16">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="17">
+        <v>43200</v>
+      </c>
+      <c r="D52" s="17">
+        <v>43207</v>
+      </c>
+      <c r="E52" s="16">
+        <f>D52-C52</f>
+        <v>7</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="30">
+      <c r="A53" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="21">
+        <v>43207</v>
+      </c>
+      <c r="D53" s="21">
+        <v>43214</v>
+      </c>
+      <c r="E53" s="19">
+        <f>D53-C53</f>
+        <v>7</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>34</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="3">
-        <v>43200</v>
-      </c>
-      <c r="D46" s="3">
-        <v>43207</v>
-      </c>
-      <c r="E46" s="2">
-        <f t="shared" ref="E46:E51" si="5">D46-C46</f>
-        <v>7</v>
-      </c>
-      <c r="F46" s="2" t="s">
+      <c r="C54" s="3">
+        <v>43214</v>
+      </c>
+      <c r="D54" s="3">
+        <v>43228</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" ref="E54:E59" si="5">D54-C54</f>
+        <v>14</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>33</v>
-      </c>
-      <c r="B47" s="2" t="s">
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>35</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="3">
-        <v>43207</v>
-      </c>
-      <c r="D47" s="3">
+      <c r="C55" s="3">
         <v>43214</v>
       </c>
-      <c r="E47" s="2">
+      <c r="D55" s="3">
+        <v>43228</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>36</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="3">
+        <v>43214</v>
+      </c>
+      <c r="D56" s="3">
+        <v>43228</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>37</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="3">
+        <v>43228</v>
+      </c>
+      <c r="D57" s="3">
+        <v>43235</v>
+      </c>
+      <c r="E57" s="2">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>34</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="3">
-        <v>43207</v>
-      </c>
-      <c r="D48" s="3">
-        <v>43214</v>
-      </c>
-      <c r="E48" s="2">
+      <c r="F57" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="18">
+        <v>38</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="3">
+        <v>43228</v>
+      </c>
+      <c r="D58" s="3">
+        <v>43235</v>
+      </c>
+      <c r="E58" s="2">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>35</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="3">
-        <v>43207</v>
-      </c>
-      <c r="D49" s="3">
-        <v>43214</v>
-      </c>
-      <c r="E49" s="2">
+      <c r="F58" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="30">
+      <c r="A59" s="18">
+        <v>39</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="3">
+        <v>43228</v>
+      </c>
+      <c r="D59" s="3">
+        <v>43235</v>
+      </c>
+      <c r="E59" s="2">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>36</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="3">
-        <v>43207</v>
-      </c>
-      <c r="D50" s="3">
-        <v>43214</v>
-      </c>
-      <c r="E50" s="2">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>37</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" s="3">
-        <v>43207</v>
-      </c>
-      <c r="D51" s="3">
-        <v>43214</v>
-      </c>
-      <c r="E51" s="2">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="F51" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>79</v>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2597,19 +2913,19 @@
     <hyperlink ref="B29" r:id="rId6" display="https://tree.taiga.io/project/pooh2014-unn_group_one/task/27"/>
     <hyperlink ref="B30" r:id="rId7" display="https://tree.taiga.io/project/pooh2014-unn_group_one/task/27"/>
   </hyperlinks>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId8"/>
   <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -2617,12 +2933,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
